--- a/report/画面遷移図.xlsx
+++ b/report/画面遷移図.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8430" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="画面一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
+    <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面一覧!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>更新者</t>
     <rPh sb="0" eb="3">
@@ -77,6 +79,41 @@
     <t>2022-03-04</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -134,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -355,6 +392,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -362,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -468,6 +655,78 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -958,9 +1217,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="38"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="45"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="46">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="49"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="39">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="49"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="46">
+        <v>4</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="45"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="39">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="45"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="46">
+        <v>6</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="49"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="39">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="45"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="46">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="45"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="39">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="45"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="46">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="45"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="39">
+        <v>11</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="45"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="46">
+        <v>12</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="45"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="45"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="46">
+        <v>14</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="45"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="39">
+        <v>15</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="44"/>
+      <c r="AB17" s="45"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="46">
+        <v>16</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="44"/>
+      <c r="AB18" s="45"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="39">
+        <v>17</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="39">
+        <v>18</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="45"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="46">
+        <v>19</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="45"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="39">
+        <v>20</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="45"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="39"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="45"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="58"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/report/画面遷移図.xlsx
+++ b/report/画面遷移図.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="16665" windowHeight="10950"/>
+    <workbookView xWindow="1176" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>更新者</t>
     <rPh sb="0" eb="3">
@@ -133,7 +133,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2022-03-27</t>
+    <t>I0005を追記</t>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金哲湖</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2022-05-13</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>金哲湖</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -141,32 +162,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -571,7 +592,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -622,9 +643,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,6 +1082,120 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>196215</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="순서도: 대체 처리 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="440055" y="3924300"/>
+          <a:ext cx="1447800" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>I0005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="3491865"/>
+          <a:ext cx="0" cy="432435"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1110,7 +1242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1145,7 +1277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1356,19 +1488,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="5"/>
+    <col min="2" max="2" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
-    <row r="2" spans="1:28">
+    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1540,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="8"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1448,19 +1580,27 @@
       <c r="AA3" s="14"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="10">
+        <v>44694</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="12"/>
+      <c r="J4" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -1478,9 +1618,9 @@
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
-      <c r="AB4" s="19"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AB4" s="18"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1510,20 +1650,20 @@
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
       <c r="AA5" s="12"/>
-      <c r="AB5" s="19"/>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AB5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="21"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -1544,7 +1684,7 @@
       <c r="AA6" s="14"/>
       <c r="AB6" s="15"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1576,7 +1716,7 @@
       <c r="AA7" s="14"/>
       <c r="AB7" s="15"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -1606,20 +1746,20 @@
       <c r="Y8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
-      <c r="AB8" s="19"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AB8" s="18"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="21"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
@@ -1640,18 +1780,18 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="21"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
@@ -1672,18 +1812,18 @@
       <c r="AA10" s="14"/>
       <c r="AB10" s="15"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
@@ -1704,18 +1844,18 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -1736,18 +1876,18 @@
       <c r="AA12" s="14"/>
       <c r="AB12" s="15"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="22"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
@@ -1768,18 +1908,18 @@
       <c r="AA13" s="14"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="22"/>
+      <c r="I14" s="21"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
@@ -1800,18 +1940,18 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="21"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
@@ -1832,18 +1972,18 @@
       <c r="AA15" s="14"/>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="21"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
@@ -1864,18 +2004,18 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="21"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -1896,18 +2036,18 @@
       <c r="AA17" s="14"/>
       <c r="AB17" s="15"/>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
@@ -1928,18 +2068,18 @@
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>17</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="14"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
@@ -1960,18 +2100,18 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="15"/>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="14"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="21"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
@@ -1992,18 +2132,18 @@
       <c r="AA20" s="14"/>
       <c r="AB20" s="15"/>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="21"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -2024,18 +2164,18 @@
       <c r="AA21" s="14"/>
       <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="14"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -2056,16 +2196,16 @@
       <c r="AA22" s="14"/>
       <c r="AB22" s="15"/>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="14"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="21"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -2086,64 +2226,64 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="28"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
+    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="27"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2156,1365 +2296,1365 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.75" style="37"/>
+    <col min="1" max="16384" width="3.69921875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
       <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="35" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="32"/>
+      <c r="R1" s="31"/>
       <c r="S1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="35" t="s">
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="32"/>
+      <c r="Z1" s="31"/>
       <c r="AA1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="36"/>
-    </row>
-    <row r="2" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="40" t="s">
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="35"/>
+    </row>
+    <row r="2" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="40" t="s">
+      <c r="R2" s="40"/>
+      <c r="S2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="45"/>
-    </row>
-    <row r="3" spans="1:34" ht="19.5" thickBot="1"/>
-    <row r="4" spans="1:34" ht="19.5" thickTop="1">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="49"/>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="51"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="52"/>
-      <c r="AH5" s="53"/>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="52"/>
-      <c r="AH6" s="53"/>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="55"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="55"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="55"/>
-      <c r="AE7" s="55"/>
-      <c r="AF7" s="55"/>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="53"/>
-    </row>
-    <row r="8" spans="1:34">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="55"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="55"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="55"/>
-      <c r="AE8" s="55"/>
-      <c r="AF8" s="55"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="53"/>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="53"/>
-    </row>
-    <row r="10" spans="1:34">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="53"/>
-    </row>
-    <row r="11" spans="1:34">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="53"/>
-    </row>
-    <row r="12" spans="1:34">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="52"/>
-      <c r="AH12" s="53"/>
-    </row>
-    <row r="13" spans="1:34">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="52"/>
-      <c r="AH13" s="53"/>
-    </row>
-    <row r="14" spans="1:34">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="53"/>
-    </row>
-    <row r="15" spans="1:34">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="55"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="55"/>
-      <c r="AE15" s="55"/>
-      <c r="AF15" s="55"/>
-      <c r="AG15" s="52"/>
-      <c r="AH15" s="53"/>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="55"/>
-      <c r="AA16" s="55"/>
-      <c r="AB16" s="55"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="55"/>
-      <c r="AE16" s="55"/>
-      <c r="AF16" s="55"/>
-      <c r="AG16" s="52"/>
-      <c r="AH16" s="53"/>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="52"/>
-      <c r="AH17" s="53"/>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="53"/>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
-      <c r="AB19" s="55"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="55"/>
-      <c r="AF19" s="55"/>
-      <c r="AG19" s="52"/>
-      <c r="AH19" s="53"/>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="55"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="55"/>
-      <c r="AE20" s="55"/>
-      <c r="AF20" s="55"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="53"/>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
-      <c r="AB21" s="55"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="55"/>
-      <c r="AE21" s="55"/>
-      <c r="AF21" s="55"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="53"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="52"/>
-      <c r="AH22" s="53"/>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="55"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="55"/>
-      <c r="AE23" s="55"/>
-      <c r="AF23" s="55"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="53"/>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="55"/>
-      <c r="AA24" s="55"/>
-      <c r="AB24" s="55"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="55"/>
-      <c r="AE24" s="55"/>
-      <c r="AF24" s="55"/>
-      <c r="AG24" s="52"/>
-      <c r="AH24" s="53"/>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="55"/>
-      <c r="AA25" s="55"/>
-      <c r="AB25" s="55"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="55"/>
-      <c r="AE25" s="55"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="53"/>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="55"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="55"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="55"/>
-      <c r="AE26" s="55"/>
-      <c r="AF26" s="55"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="53"/>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="56"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="55"/>
-      <c r="AA27" s="55"/>
-      <c r="AB27" s="55"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="55"/>
-      <c r="AE27" s="55"/>
-      <c r="AF27" s="55"/>
-      <c r="AG27" s="52"/>
-      <c r="AH27" s="53"/>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="56"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="52"/>
-      <c r="AA28" s="52"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="52"/>
-      <c r="AH28" s="53"/>
-    </row>
-    <row r="29" spans="1:34">
-      <c r="A29" s="56"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="52"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="52"/>
-      <c r="AA29" s="52"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="52"/>
-      <c r="AH29" s="53"/>
-    </row>
-    <row r="30" spans="1:34">
-      <c r="A30" s="56"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="52"/>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="53"/>
-    </row>
-    <row r="31" spans="1:34">
-      <c r="A31" s="56"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="52"/>
-      <c r="S31" s="52"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="52"/>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="52"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="52"/>
-      <c r="AH31" s="53"/>
-    </row>
-    <row r="32" spans="1:34">
-      <c r="A32" s="56"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="52"/>
-      <c r="AA32" s="52"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="52"/>
-      <c r="AH32" s="53"/>
-    </row>
-    <row r="33" spans="1:34">
-      <c r="A33" s="56"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52"/>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52"/>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52"/>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="52"/>
-      <c r="AH33" s="53"/>
-    </row>
-    <row r="34" spans="1:34">
-      <c r="A34" s="56"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="53"/>
-    </row>
-    <row r="35" spans="1:34">
-      <c r="A35" s="56"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="52"/>
-      <c r="Q35" s="52"/>
-      <c r="R35" s="52"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="53"/>
-    </row>
-    <row r="36" spans="1:34">
-      <c r="A36" s="56"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52"/>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="52"/>
-      <c r="AG36" s="52"/>
-      <c r="AH36" s="53"/>
-    </row>
-    <row r="37" spans="1:34">
-      <c r="A37" s="56"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
-      <c r="AG37" s="52"/>
-      <c r="AH37" s="53"/>
-    </row>
-    <row r="38" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-      <c r="K38" s="58"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="58"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="58"/>
-      <c r="U38" s="58"/>
-      <c r="V38" s="58"/>
-      <c r="W38" s="58"/>
-      <c r="X38" s="58"/>
-      <c r="Y38" s="58"/>
-      <c r="Z38" s="58"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="59"/>
-    </row>
-    <row r="39" spans="1:34" ht="19.5" thickTop="1"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="44"/>
+    </row>
+    <row r="3" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:34" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="47"/>
+      <c r="AH4" s="48"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="52"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="52"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="52"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="52"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="51"/>
+      <c r="AH10" s="52"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="51"/>
+      <c r="AH11" s="52"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="51"/>
+      <c r="AH12" s="52"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="51"/>
+      <c r="AH13" s="52"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="51"/>
+      <c r="AH14" s="52"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="51"/>
+      <c r="AH15" s="52"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="52"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="51"/>
+      <c r="AH17" s="52"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="51"/>
+      <c r="AH18" s="52"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="51"/>
+      <c r="AH19" s="52"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="51"/>
+      <c r="AH20" s="52"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="51"/>
+      <c r="AH21" s="52"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="51"/>
+      <c r="AH22" s="52"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="54"/>
+      <c r="AD23" s="54"/>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54"/>
+      <c r="AG23" s="51"/>
+      <c r="AH23" s="52"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="54"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="54"/>
+      <c r="AC24" s="54"/>
+      <c r="AD24" s="54"/>
+      <c r="AE24" s="54"/>
+      <c r="AF24" s="54"/>
+      <c r="AG24" s="51"/>
+      <c r="AH24" s="52"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="54"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="54"/>
+      <c r="AC25" s="54"/>
+      <c r="AD25" s="54"/>
+      <c r="AE25" s="54"/>
+      <c r="AF25" s="54"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="52"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="54"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="54"/>
+      <c r="AC26" s="54"/>
+      <c r="AD26" s="54"/>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="52"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A27" s="55"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="54"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="54"/>
+      <c r="AC27" s="54"/>
+      <c r="AD27" s="54"/>
+      <c r="AE27" s="54"/>
+      <c r="AF27" s="54"/>
+      <c r="AG27" s="51"/>
+      <c r="AH27" s="52"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="52"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A29" s="55"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+      <c r="AH29" s="52"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A30" s="55"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="52"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A31" s="55"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
+      <c r="AH31" s="52"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A32" s="55"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="52"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A33" s="55"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="52"/>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A34" s="55"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A35" s="55"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="52"/>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A36" s="55"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="52"/>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
+      <c r="A37" s="55"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="52"/>
+    </row>
+    <row r="38" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="57"/>
+      <c r="AE38" s="57"/>
+      <c r="AF38" s="57"/>
+      <c r="AG38" s="57"/>
+      <c r="AH38" s="58"/>
+    </row>
+    <row r="39" spans="1:34" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/report/画面遷移図.xlsx
+++ b/report/画面遷移図.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B24CA2-554B-4152-A9C2-6CBFF69FB2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="16668" windowHeight="10956" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>更新者</t>
     <rPh sb="0" eb="3">
@@ -147,22 +148,36 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2022-05-13</t>
+    <t>2022-05-24</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>金哲湖</t>
+    <t>孟元永</t>
     <rPh sb="0" eb="3">
       <t>フトシトラクマ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>I0004を追記</t>
+    <rPh sb="6" eb="8">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>孟元永</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +213,19 @@
       <name val="Meiryo"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -592,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -768,10 +796,25 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -803,7 +846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="순서도: 대체 처리 1"/>
+        <xdr:cNvPr id="2" name="순서도: 대체 처리 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -867,7 +916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="순서도: 대체 처리 2"/>
+        <xdr:cNvPr id="3" name="순서도: 대체 처리 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -931,7 +986,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="직선 화살표 연결선 6"/>
+        <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -982,7 +1043,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="순서도: 대체 처리 4"/>
+        <xdr:cNvPr id="5" name="순서도: 대체 처리 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1046,7 +1113,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="직선 화살표 연결선 5"/>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="2"/>
           <a:endCxn id="5" idx="0"/>
@@ -1097,7 +1170,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="순서도: 대체 처리 9"/>
+        <xdr:cNvPr id="10" name="순서도: 대체 처리 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1161,7 +1240,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="직선 화살표 연결선 10"/>
+        <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -1194,6 +1279,138 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDB5584-973A-46E5-9368-78755762D73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1889760" y="3246120"/>
+          <a:ext cx="579120" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="순서도: 대체 처리 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E37A47-DC7F-85C1-F602-47317E5BE385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470785" y="2990850"/>
+          <a:ext cx="1447800" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>I0004</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>詳細画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1242,7 +1459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1275,9 +1492,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1310,6 +1544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1485,12 +1736,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1624,18 +1873,26 @@
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
+      <c r="B5" s="59">
+        <v>44705</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -2293,12 +2550,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>

--- a/report/画面遷移図.xlsx
+++ b/report/画面遷移図.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B24CA2-554B-4152-A9C2-6CBFF69FB2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="3" r:id="rId1"/>
     <sheet name="画面一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面一覧!$A$1:$AI$39</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
@@ -176,33 +175,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -219,11 +218,15 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
@@ -620,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -796,25 +799,28 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -849,7 +855,7 @@
         <xdr:cNvPr id="2" name="순서도: 대체 처리 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +925,7 @@
         <xdr:cNvPr id="3" name="순서도: 대체 처리 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +995,7 @@
         <xdr:cNvPr id="7" name="직선 화살표 연결선 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1052,7 @@
         <xdr:cNvPr id="5" name="순서도: 대체 처리 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,7 +1122,7 @@
         <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1173,7 +1179,7 @@
         <xdr:cNvPr id="10" name="순서도: 대체 처리 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1249,7 @@
         <xdr:cNvPr id="11" name="직선 화살표 연결선 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1305,7 @@
         <xdr:cNvPr id="9" name="직선 화살표 연결선 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDB5584-973A-46E5-9368-78755762D73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8FDB5584-973A-46E5-9368-78755762D73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1359,7 @@
         <xdr:cNvPr id="12" name="순서도: 대체 처리 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4E37A47-DC7F-85C1-F602-47317E5BE385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4E37A47-DC7F-85C1-F602-47317E5BE385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,8 +1367,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2470785" y="2990850"/>
-          <a:ext cx="1447800" cy="499110"/>
+          <a:off x="2501265" y="3219450"/>
+          <a:ext cx="1466850" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -1392,7 +1398,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>I0004</a:t>
@@ -1403,7 +1409,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>詳細画面</a:t>
@@ -1492,23 +1498,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1544,23 +1533,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1736,20 +1708,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="5"/>
+    <col min="2" max="2" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1789,7 +1763,7 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="8"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -1829,7 +1803,7 @@
       <c r="AA3" s="14"/>
       <c r="AB3" s="15"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -1869,30 +1843,30 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="18"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="60">
         <v>44705</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="61" t="s">
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
@@ -1909,7 +1883,7 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="18"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -1941,7 +1915,7 @@
       <c r="AA6" s="14"/>
       <c r="AB6" s="15"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1973,7 +1947,7 @@
       <c r="AA7" s="14"/>
       <c r="AB7" s="15"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -2005,7 +1979,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="18"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -2037,7 +2011,7 @@
       <c r="AA9" s="14"/>
       <c r="AB9" s="15"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -2069,7 +2043,7 @@
       <c r="AA10" s="14"/>
       <c r="AB10" s="15"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -2101,7 +2075,7 @@
       <c r="AA11" s="14"/>
       <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -2133,7 +2107,7 @@
       <c r="AA12" s="14"/>
       <c r="AB12" s="15"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -2165,7 +2139,7 @@
       <c r="AA13" s="14"/>
       <c r="AB13" s="15"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -2197,7 +2171,7 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="15"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -2229,7 +2203,7 @@
       <c r="AA15" s="14"/>
       <c r="AB15" s="15"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -2261,7 +2235,7 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -2293,7 +2267,7 @@
       <c r="AA17" s="14"/>
       <c r="AB17" s="15"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -2325,7 +2299,7 @@
       <c r="AA18" s="14"/>
       <c r="AB18" s="15"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -2357,7 +2331,7 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="15"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -2389,7 +2363,7 @@
       <c r="AA20" s="14"/>
       <c r="AB20" s="15"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -2421,7 +2395,7 @@
       <c r="AA21" s="14"/>
       <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -2453,7 +2427,7 @@
       <c r="AA22" s="14"/>
       <c r="AB22" s="15"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="9"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -2483,7 +2457,7 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="22"/>
       <c r="B24" s="23"/>
       <c r="C24" s="24"/>
@@ -2513,7 +2487,7 @@
       <c r="AA24" s="25"/>
       <c r="AB24" s="27"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -2550,17 +2524,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH39"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="3.69921875" style="36"/>
+    <col min="1" max="16384" width="3.75" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34">
       <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
@@ -2606,7 +2582,7 @@
       <c r="AE1" s="32"/>
       <c r="AF1" s="35"/>
     </row>
-    <row r="2" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" ht="19.5" thickBot="1">
       <c r="A2" s="37"/>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -2648,8 +2624,8 @@
       <c r="AE2" s="42"/>
       <c r="AF2" s="44"/>
     </row>
-    <row r="3" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:34" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:34" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:34" ht="19.5" thickTop="1">
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -2685,7 +2661,7 @@
       <c r="AG4" s="47"/>
       <c r="AH4" s="48"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:34">
       <c r="A5" s="49"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
@@ -2721,7 +2697,7 @@
       <c r="AG5" s="51"/>
       <c r="AH5" s="52"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:34">
       <c r="A6" s="53"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -2757,7 +2733,7 @@
       <c r="AG6" s="51"/>
       <c r="AH6" s="52"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:34">
       <c r="A7" s="53"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
@@ -2793,7 +2769,7 @@
       <c r="AG7" s="51"/>
       <c r="AH7" s="52"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:34">
       <c r="A8" s="53"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -2829,7 +2805,7 @@
       <c r="AG8" s="51"/>
       <c r="AH8" s="52"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:34">
       <c r="A9" s="53"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -2865,7 +2841,7 @@
       <c r="AG9" s="51"/>
       <c r="AH9" s="52"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:34">
       <c r="A10" s="53"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -2901,7 +2877,7 @@
       <c r="AG10" s="51"/>
       <c r="AH10" s="52"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:34">
       <c r="A11" s="53"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -2937,7 +2913,7 @@
       <c r="AG11" s="51"/>
       <c r="AH11" s="52"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:34">
       <c r="A12" s="53"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -2973,7 +2949,7 @@
       <c r="AG12" s="51"/>
       <c r="AH12" s="52"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:34">
       <c r="A13" s="53"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -3009,7 +2985,7 @@
       <c r="AG13" s="51"/>
       <c r="AH13" s="52"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:34">
       <c r="A14" s="53"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -3045,7 +3021,7 @@
       <c r="AG14" s="51"/>
       <c r="AH14" s="52"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:34">
       <c r="A15" s="53"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -3081,7 +3057,7 @@
       <c r="AG15" s="51"/>
       <c r="AH15" s="52"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:34">
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -3117,7 +3093,7 @@
       <c r="AG16" s="51"/>
       <c r="AH16" s="52"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34">
       <c r="A17" s="53"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -3153,7 +3129,7 @@
       <c r="AG17" s="51"/>
       <c r="AH17" s="52"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:34">
       <c r="A18" s="53"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -3189,7 +3165,7 @@
       <c r="AG18" s="51"/>
       <c r="AH18" s="52"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:34">
       <c r="A19" s="53"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -3225,7 +3201,7 @@
       <c r="AG19" s="51"/>
       <c r="AH19" s="52"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:34">
       <c r="A20" s="53"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -3261,7 +3237,7 @@
       <c r="AG20" s="51"/>
       <c r="AH20" s="52"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:34">
       <c r="A21" s="53"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -3297,7 +3273,7 @@
       <c r="AG21" s="51"/>
       <c r="AH21" s="52"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:34">
       <c r="A22" s="53"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -3333,7 +3309,7 @@
       <c r="AG22" s="51"/>
       <c r="AH22" s="52"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:34">
       <c r="A23" s="53"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -3369,7 +3345,7 @@
       <c r="AG23" s="51"/>
       <c r="AH23" s="52"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:34">
       <c r="A24" s="53"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -3405,7 +3381,7 @@
       <c r="AG24" s="51"/>
       <c r="AH24" s="52"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:34">
       <c r="A25" s="53"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3441,7 +3417,7 @@
       <c r="AG25" s="51"/>
       <c r="AH25" s="52"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:34">
       <c r="A26" s="53"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -3477,7 +3453,7 @@
       <c r="AG26" s="51"/>
       <c r="AH26" s="52"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:34">
       <c r="A27" s="55"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -3513,7 +3489,7 @@
       <c r="AG27" s="51"/>
       <c r="AH27" s="52"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:34">
       <c r="A28" s="55"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -3549,7 +3525,7 @@
       <c r="AG28" s="51"/>
       <c r="AH28" s="52"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:34">
       <c r="A29" s="55"/>
       <c r="B29" s="51"/>
       <c r="C29" s="51"/>
@@ -3585,7 +3561,7 @@
       <c r="AG29" s="51"/>
       <c r="AH29" s="52"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:34">
       <c r="A30" s="55"/>
       <c r="B30" s="51"/>
       <c r="C30" s="51"/>
@@ -3621,7 +3597,7 @@
       <c r="AG30" s="51"/>
       <c r="AH30" s="52"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:34">
       <c r="A31" s="55"/>
       <c r="B31" s="51"/>
       <c r="C31" s="51"/>
@@ -3657,7 +3633,7 @@
       <c r="AG31" s="51"/>
       <c r="AH31" s="52"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:34">
       <c r="A32" s="55"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -3693,7 +3669,7 @@
       <c r="AG32" s="51"/>
       <c r="AH32" s="52"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:34">
       <c r="A33" s="55"/>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
@@ -3729,7 +3705,7 @@
       <c r="AG33" s="51"/>
       <c r="AH33" s="52"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:34">
       <c r="A34" s="55"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
@@ -3765,7 +3741,7 @@
       <c r="AG34" s="51"/>
       <c r="AH34" s="52"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:34">
       <c r="A35" s="55"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
@@ -3801,7 +3777,7 @@
       <c r="AG35" s="51"/>
       <c r="AH35" s="52"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:34">
       <c r="A36" s="55"/>
       <c r="B36" s="51"/>
       <c r="C36" s="51"/>
@@ -3837,7 +3813,7 @@
       <c r="AG36" s="51"/>
       <c r="AH36" s="52"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:34">
       <c r="A37" s="55"/>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -3873,7 +3849,7 @@
       <c r="AG37" s="51"/>
       <c r="AH37" s="52"/>
     </row>
-    <row r="38" spans="1:34" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" ht="19.5" thickBot="1">
       <c r="A38" s="56"/>
       <c r="B38" s="57"/>
       <c r="C38" s="57"/>
@@ -3909,11 +3885,11 @@
       <c r="AG38" s="57"/>
       <c r="AH38" s="58"/>
     </row>
-    <row r="39" spans="1:34" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="1:34" ht="19.5" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>